--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_20_12.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_20_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-760971.5061086139</v>
+        <v>-763805.5282889497</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -665,19 +665,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>230.0950978604864</v>
       </c>
       <c r="F2" t="n">
-        <v>230.0950978604844</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>230.0950978604844</v>
+        <v>82.87587673016795</v>
       </c>
       <c r="H2" t="n">
-        <v>202.6677621955146</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>119.7918854653484</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -713,10 +713,10 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>230.0950978604864</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>230.0950978604864</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>230.0950978604844</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,28 +735,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>62.06224270744676</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0849679188408</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>46.06500316587383</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,25 +783,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>22.01738194518809</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>195.0918920475589</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>225.8585827885821</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>180.4077247855717</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -826,16 +826,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>152.8461484158854</v>
       </c>
       <c r="I4" t="n">
-        <v>123.7199762617562</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>129.8511161656901</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.4373263167984</v>
       </c>
       <c r="U4" t="n">
-        <v>94.8436729135953</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>230.0950978604844</v>
+        <v>230.0950978604864</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>11.30231899518399</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>263.7138800015061</v>
+        <v>237.9688518868388</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -908,7 +908,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>225.4031397636151</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
     </row>
     <row r="6">
@@ -978,10 +978,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -1020,28 +1020,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527768</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>79.17465383623669</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>149.5998560034027</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1060,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1069,13 +1069,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888209</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1102,19 +1102,19 @@
         <v>127.5046028836639</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T7" t="n">
-        <v>139.2828448129277</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>263.7138800015061</v>
+        <v>166.6712810111244</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>277.1839017817672</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1145,7 +1145,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>210.0135959616638</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.045250128462</v>
@@ -1193,13 +1193,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>24.03105789746779</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1345,16 +1345,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>171.1971464172153</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>332.4423155261871</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8432760127576</v>
+        <v>359.5517498754641</v>
       </c>
       <c r="H11" t="n">
         <v>283.5630920045443</v>
@@ -1528,25 +1528,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>63.32315142138624</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I13" t="n">
-        <v>17.42222988411453</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1765,7 +1765,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>55.49215756129657</v>
+        <v>46.86766651429451</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1774,16 +1774,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1853,13 +1853,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417101</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -2008,19 +2008,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>38.61213096654645</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>147.6895341487364</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>69.82863813027228</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2245,19 +2245,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2299,7 +2299,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>231.3119700802614</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2369,7 +2369,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>122.6028762599951</v>
       </c>
       <c r="C25" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2716,19 +2716,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>55.5207962406042</v>
       </c>
       <c r="T28" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2953,22 +2953,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>14.75529838241474</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>27.02919805176109</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3001,7 +3001,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3041,10 +3041,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187858</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.154082144412</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695523</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3193,16 +3193,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>99.97427419833816</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3241,13 +3241,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>75.00788511618036</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3427,7 +3427,7 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D37" t="n">
-        <v>124.330825526173</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
         <v>122.1493151545295</v>
@@ -3442,7 +3442,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652616</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3667,7 +3667,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545298</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
@@ -3679,7 +3679,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652614</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3794,7 +3794,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3916,7 +3916,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652614</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -3992,7 +3992,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>687.9611006737715</v>
+        <v>455.5418099056094</v>
       </c>
       <c r="C2" t="n">
-        <v>687.9611006737715</v>
+        <v>455.5418099056094</v>
       </c>
       <c r="D2" t="n">
-        <v>687.9611006737715</v>
+        <v>455.5418099056094</v>
       </c>
       <c r="E2" t="n">
-        <v>687.9611006737715</v>
+        <v>223.1225191374413</v>
       </c>
       <c r="F2" t="n">
-        <v>455.5418099056054</v>
+        <v>223.1225191374413</v>
       </c>
       <c r="G2" t="n">
-        <v>223.1225191374394</v>
+        <v>139.4095123392918</v>
       </c>
       <c r="H2" t="n">
-        <v>18.40760782883875</v>
+        <v>139.4095123392918</v>
       </c>
       <c r="I2" t="n">
-        <v>18.40760782883875</v>
+        <v>18.40760782883891</v>
       </c>
       <c r="J2" t="n">
-        <v>36.81756999873915</v>
+        <v>36.81756999873937</v>
       </c>
       <c r="K2" t="n">
-        <v>115.1478492470214</v>
+        <v>115.1478492470222</v>
       </c>
       <c r="L2" t="n">
-        <v>249.2252489495467</v>
+        <v>249.2252489495482</v>
       </c>
       <c r="M2" t="n">
-        <v>430.081627511884</v>
+        <v>430.0816275118869</v>
       </c>
       <c r="N2" t="n">
-        <v>618.4782597377155</v>
+        <v>618.4782597377198</v>
       </c>
       <c r="O2" t="n">
-        <v>783.0405960015935</v>
+        <v>783.0405960015992</v>
       </c>
       <c r="P2" t="n">
-        <v>888.9897418596504</v>
+        <v>888.9897418596577</v>
       </c>
       <c r="Q2" t="n">
-        <v>920.3803914419376</v>
+        <v>920.3803914419457</v>
       </c>
       <c r="R2" t="n">
-        <v>920.3803914419376</v>
+        <v>920.3803914419457</v>
       </c>
       <c r="S2" t="n">
-        <v>920.3803914419376</v>
+        <v>920.3803914419457</v>
       </c>
       <c r="T2" t="n">
-        <v>920.3803914419376</v>
+        <v>920.3803914419457</v>
       </c>
       <c r="U2" t="n">
-        <v>920.3803914419376</v>
+        <v>687.9611006737775</v>
       </c>
       <c r="V2" t="n">
-        <v>920.3803914419376</v>
+        <v>455.5418099056094</v>
       </c>
       <c r="W2" t="n">
-        <v>920.3803914419376</v>
+        <v>455.5418099056094</v>
       </c>
       <c r="X2" t="n">
-        <v>920.3803914419376</v>
+        <v>455.5418099056094</v>
       </c>
       <c r="Y2" t="n">
-        <v>687.9611006737715</v>
+        <v>455.5418099056094</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>265.0866116593048</v>
+        <v>341.7950467712172</v>
       </c>
       <c r="C3" t="n">
-        <v>265.0866116593048</v>
+        <v>167.3420174900902</v>
       </c>
       <c r="D3" t="n">
-        <v>265.0866116593048</v>
+        <v>18.40760782883891</v>
       </c>
       <c r="E3" t="n">
-        <v>265.0866116593048</v>
+        <v>18.40760782883891</v>
       </c>
       <c r="F3" t="n">
-        <v>202.3974776113787</v>
+        <v>18.40760782883891</v>
       </c>
       <c r="G3" t="n">
-        <v>64.93791405699413</v>
+        <v>18.40760782883891</v>
       </c>
       <c r="H3" t="n">
-        <v>64.93791405699413</v>
+        <v>18.40760782883891</v>
       </c>
       <c r="I3" t="n">
-        <v>18.40760782883875</v>
+        <v>18.40760782883891</v>
       </c>
       <c r="J3" t="n">
-        <v>18.40760782883875</v>
+        <v>38.47338697075948</v>
       </c>
       <c r="K3" t="n">
-        <v>136.9742205866453</v>
+        <v>103.2061845557303</v>
       </c>
       <c r="L3" t="n">
-        <v>270.3379966181868</v>
+        <v>236.5699605872726</v>
       </c>
       <c r="M3" t="n">
-        <v>445.3241010563288</v>
+        <v>411.5560650254156</v>
       </c>
       <c r="N3" t="n">
-        <v>639.3502119072914</v>
+        <v>639.3502119072972</v>
       </c>
       <c r="O3" t="n">
-        <v>794.6264020596532</v>
+        <v>794.62640205966</v>
       </c>
       <c r="P3" t="n">
-        <v>899.9161678043839</v>
+        <v>899.9161678043915</v>
       </c>
       <c r="Q3" t="n">
-        <v>920.3803914419376</v>
+        <v>920.3803914419457</v>
       </c>
       <c r="R3" t="n">
-        <v>898.1406116993234</v>
+        <v>920.3803914419457</v>
       </c>
       <c r="S3" t="n">
-        <v>898.1406116993234</v>
+        <v>920.3803914419457</v>
       </c>
       <c r="T3" t="n">
-        <v>701.078094479567</v>
+        <v>920.3803914419457</v>
       </c>
       <c r="U3" t="n">
-        <v>472.9381118648376</v>
+        <v>692.2404088272162</v>
       </c>
       <c r="V3" t="n">
-        <v>472.9381118648376</v>
+        <v>510.0103837912852</v>
       </c>
       <c r="W3" t="n">
-        <v>472.9381118648376</v>
+        <v>510.0103837912852</v>
       </c>
       <c r="X3" t="n">
-        <v>265.0866116593048</v>
+        <v>510.0103837912852</v>
       </c>
       <c r="Y3" t="n">
-        <v>265.0866116593048</v>
+        <v>510.0103837912852</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>143.3772808205117</v>
+        <v>319.687604231684</v>
       </c>
       <c r="C4" t="n">
-        <v>143.3772808205117</v>
+        <v>319.687604231684</v>
       </c>
       <c r="D4" t="n">
-        <v>143.3772808205117</v>
+        <v>319.687604231684</v>
       </c>
       <c r="E4" t="n">
-        <v>143.3772808205117</v>
+        <v>319.687604231684</v>
       </c>
       <c r="F4" t="n">
-        <v>143.3772808205117</v>
+        <v>172.7976567337737</v>
       </c>
       <c r="G4" t="n">
-        <v>143.3772808205117</v>
+        <v>172.7976567337737</v>
       </c>
       <c r="H4" t="n">
-        <v>143.3772808205117</v>
+        <v>18.40760782883891</v>
       </c>
       <c r="I4" t="n">
-        <v>18.40760782883875</v>
+        <v>18.40760782883891</v>
       </c>
       <c r="J4" t="n">
-        <v>18.40760782883875</v>
+        <v>18.40760782883891</v>
       </c>
       <c r="K4" t="n">
-        <v>117.7213354725041</v>
+        <v>117.7213354725046</v>
       </c>
       <c r="L4" t="n">
-        <v>300.3351489396683</v>
+        <v>218.2840666092432</v>
       </c>
       <c r="M4" t="n">
-        <v>503.2649339893148</v>
+        <v>421.2138516588902</v>
       </c>
       <c r="N4" t="n">
-        <v>706.8041187427053</v>
+        <v>624.7530364122813</v>
       </c>
       <c r="O4" t="n">
-        <v>878.7892041196584</v>
+        <v>796.7381217892349</v>
       </c>
       <c r="P4" t="n">
-        <v>918.2119729745793</v>
+        <v>920.3803914419457</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.3803914419376</v>
+        <v>920.3803914419457</v>
       </c>
       <c r="R4" t="n">
-        <v>920.3803914419376</v>
+        <v>789.2176478402384</v>
       </c>
       <c r="S4" t="n">
-        <v>920.3803914419376</v>
+        <v>789.2176478402384</v>
       </c>
       <c r="T4" t="n">
-        <v>920.3803914419376</v>
+        <v>563.5233788333713</v>
       </c>
       <c r="U4" t="n">
-        <v>824.5787016302252</v>
+        <v>563.5233788333713</v>
       </c>
       <c r="V4" t="n">
-        <v>592.1594108620591</v>
+        <v>331.1040880652032</v>
       </c>
       <c r="W4" t="n">
-        <v>592.1594108620591</v>
+        <v>319.687604231684</v>
       </c>
       <c r="X4" t="n">
-        <v>364.1698599640418</v>
+        <v>319.687604231684</v>
       </c>
       <c r="Y4" t="n">
-        <v>143.3772808205117</v>
+        <v>319.687604231684</v>
       </c>
     </row>
     <row r="5">
@@ -4541,46 +4541,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>522.1002068716687</v>
+        <v>534.7928453799755</v>
       </c>
       <c r="C5" t="n">
-        <v>255.7225503044907</v>
+        <v>294.4202677165019</v>
       </c>
       <c r="D5" t="n">
-        <v>255.7225503044907</v>
+        <v>294.4202677165019</v>
       </c>
       <c r="E5" t="n">
-        <v>255.7225503044907</v>
+        <v>294.4202677165019</v>
       </c>
       <c r="F5" t="n">
-        <v>248.7770495552872</v>
+        <v>287.4747669672985</v>
       </c>
       <c r="G5" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H5" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I5" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J5" t="n">
         <v>49.28269087917579</v>
       </c>
       <c r="K5" t="n">
-        <v>142.264087905254</v>
+        <v>142.2640879052542</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515905</v>
+        <v>294.5174947515907</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030603</v>
+        <v>495.5981834030605</v>
       </c>
       <c r="N5" t="n">
-        <v>704.5463761991316</v>
+        <v>704.5463761991318</v>
       </c>
       <c r="O5" t="n">
-        <v>888.5149683358413</v>
+        <v>888.5149683358414</v>
       </c>
       <c r="P5" t="n">
         <v>1011.026904601763</v>
@@ -4598,19 +4598,19 @@
         <v>1054.855520006025</v>
       </c>
       <c r="U5" t="n">
-        <v>1054.855520006025</v>
+        <v>801.1705019471535</v>
       </c>
       <c r="V5" t="n">
-        <v>1054.855520006025</v>
+        <v>801.1705019471535</v>
       </c>
       <c r="W5" t="n">
-        <v>788.4778634388466</v>
+        <v>801.1705019471535</v>
       </c>
       <c r="X5" t="n">
-        <v>522.1002068716687</v>
+        <v>801.1705019471535</v>
       </c>
       <c r="Y5" t="n">
-        <v>522.1002068716687</v>
+        <v>534.7928453799755</v>
       </c>
     </row>
     <row r="6">
@@ -4620,46 +4620,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>650.2565623210693</v>
+        <v>342.0846976543626</v>
       </c>
       <c r="C6" t="n">
-        <v>475.8035330399423</v>
+        <v>167.6316683732355</v>
       </c>
       <c r="D6" t="n">
-        <v>326.869123378691</v>
+        <v>167.6316683732355</v>
       </c>
       <c r="E6" t="n">
         <v>167.6316683732355</v>
       </c>
       <c r="F6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K6" t="n">
-        <v>95.78113116957465</v>
+        <v>192.1295835699344</v>
       </c>
       <c r="L6" t="n">
-        <v>242.5255548298713</v>
+        <v>338.8740072302311</v>
       </c>
       <c r="M6" t="n">
-        <v>433.1262439263951</v>
+        <v>529.474696326755</v>
       </c>
       <c r="N6" t="n">
-        <v>643.1802110290001</v>
+        <v>739.52866342936</v>
       </c>
       <c r="O6" t="n">
-        <v>813.1187583557299</v>
+        <v>909.4672107560898</v>
       </c>
       <c r="P6" t="n">
         <v>1026.524810789493</v>
@@ -4668,28 +4668,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R6" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S6" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T6" t="n">
-        <v>1036.519636212815</v>
+        <v>858.0464416374624</v>
       </c>
       <c r="U6" t="n">
-        <v>1036.519636212815</v>
+        <v>629.9105956742759</v>
       </c>
       <c r="V6" t="n">
-        <v>801.367527981072</v>
+        <v>549.9361978598954</v>
       </c>
       <c r="W6" t="n">
-        <v>801.367527981072</v>
+        <v>549.9361978598954</v>
       </c>
       <c r="X6" t="n">
-        <v>801.367527981072</v>
+        <v>342.0846976543626</v>
       </c>
       <c r="Y6" t="n">
-        <v>650.2565623210693</v>
+        <v>342.0846976543626</v>
       </c>
     </row>
     <row r="7">
@@ -4699,46 +4699,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>36.32155393434483</v>
+        <v>322.9315770490356</v>
       </c>
       <c r="C7" t="n">
-        <v>36.32155393434483</v>
+        <v>322.9315770490356</v>
       </c>
       <c r="D7" t="n">
-        <v>36.32155393434483</v>
+        <v>322.9315770490356</v>
       </c>
       <c r="E7" t="n">
-        <v>36.32155393434483</v>
+        <v>175.0184834666425</v>
       </c>
       <c r="F7" t="n">
-        <v>36.32155393434483</v>
+        <v>175.0184834666425</v>
       </c>
       <c r="G7" t="n">
-        <v>36.32155393434483</v>
+        <v>175.0184834666425</v>
       </c>
       <c r="H7" t="n">
-        <v>36.32155393434483</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I7" t="n">
-        <v>36.32155393434483</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J7" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K7" t="n">
-        <v>126.4133765287946</v>
+        <v>126.4133765287947</v>
       </c>
       <c r="L7" t="n">
-        <v>316.7083726551008</v>
+        <v>316.708372655101</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375335</v>
+        <v>527.7368878375337</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227045</v>
+        <v>739.1822330227046</v>
       </c>
       <c r="O7" t="n">
-        <v>918.4699372075542</v>
+        <v>918.4699372075544</v>
       </c>
       <c r="P7" t="n">
         <v>1048.360858816803</v>
@@ -4747,28 +4747,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R7" t="n">
-        <v>926.0629918407075</v>
+        <v>926.0629918407077</v>
       </c>
       <c r="S7" t="n">
-        <v>926.0629918407075</v>
+        <v>719.2759572512191</v>
       </c>
       <c r="T7" t="n">
-        <v>785.373249605427</v>
+        <v>719.2759572512191</v>
       </c>
       <c r="U7" t="n">
-        <v>785.373249605427</v>
+        <v>719.2759572512191</v>
       </c>
       <c r="V7" t="n">
-        <v>530.6887613995401</v>
+        <v>719.2759572512191</v>
       </c>
       <c r="W7" t="n">
-        <v>264.3111048323622</v>
+        <v>550.921127947053</v>
       </c>
       <c r="X7" t="n">
-        <v>36.32155393434483</v>
+        <v>322.9315770490356</v>
       </c>
       <c r="Y7" t="n">
-        <v>36.32155393434483</v>
+        <v>322.9315770490356</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>656.1154853312728</v>
+        <v>1182.87310169792</v>
       </c>
       <c r="C8" t="n">
-        <v>656.1154853312728</v>
+        <v>813.9105847575083</v>
       </c>
       <c r="D8" t="n">
-        <v>656.1154853312728</v>
+        <v>455.6448861507579</v>
       </c>
       <c r="E8" t="n">
-        <v>270.3272327330286</v>
+        <v>69.85663355251364</v>
       </c>
       <c r="F8" t="n">
-        <v>263.3817319838251</v>
+        <v>62.91113280331017</v>
       </c>
       <c r="G8" t="n">
         <v>51.2467865680031</v>
@@ -4802,16 +4802,16 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816079</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087291</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
         <v>1656.671415230817</v>
@@ -4829,25 +4829,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T8" t="n">
-        <v>2353.59368700598</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="U8" t="n">
-        <v>2100.012626270159</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="V8" t="n">
-        <v>1768.949738926588</v>
+        <v>1852.996172847234</v>
       </c>
       <c r="W8" t="n">
-        <v>1416.181083656474</v>
+        <v>1852.996172847234</v>
       </c>
       <c r="X8" t="n">
-        <v>1042.715325395395</v>
+        <v>1852.996172847234</v>
       </c>
       <c r="Y8" t="n">
-        <v>1042.715325395395</v>
+        <v>1462.856840871422</v>
       </c>
     </row>
     <row r="9">
@@ -4872,28 +4872,28 @@
         <v>302.1446891756896</v>
       </c>
       <c r="G9" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057878</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500114</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K9" t="n">
-        <v>507.2413987429752</v>
+        <v>507.2413987429755</v>
       </c>
       <c r="L9" t="n">
-        <v>801.944955774447</v>
+        <v>801.9449557744472</v>
       </c>
       <c r="M9" t="n">
         <v>1165.206974733667</v>
       </c>
       <c r="N9" t="n">
-        <v>1552.492103330612</v>
+        <v>1552.492103330613</v>
       </c>
       <c r="O9" t="n">
         <v>1884.562538506774</v>
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>833.0891146802707</v>
+        <v>690.202250398678</v>
       </c>
       <c r="C10" t="n">
-        <v>664.1529317523638</v>
+        <v>521.2660674707711</v>
       </c>
       <c r="D10" t="n">
-        <v>514.036292340028</v>
+        <v>371.1494280584353</v>
       </c>
       <c r="E10" t="n">
-        <v>366.1231987576349</v>
+        <v>346.8756322024072</v>
       </c>
       <c r="F10" t="n">
-        <v>219.2332512597245</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="G10" t="n">
-        <v>51.2467865680031</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H10" t="n">
         <v>51.2467865680031</v>
@@ -4960,25 +4960,25 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
@@ -4993,19 +4993,19 @@
         <v>1636.446120074497</v>
       </c>
       <c r="U10" t="n">
-        <v>1636.446120074497</v>
+        <v>1347.327782578335</v>
       </c>
       <c r="V10" t="n">
-        <v>1636.446120074497</v>
+        <v>1092.643294372448</v>
       </c>
       <c r="W10" t="n">
-        <v>1463.519709552058</v>
+        <v>1092.643294372448</v>
       </c>
       <c r="X10" t="n">
-        <v>1235.53015865404</v>
+        <v>1092.643294372448</v>
       </c>
       <c r="Y10" t="n">
-        <v>1014.73757951051</v>
+        <v>871.8507152289177</v>
       </c>
     </row>
     <row r="11">
@@ -5015,19 +5015,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.224468905844</v>
+        <v>2266.424947555042</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.261951965432</v>
+        <v>1897.462430614631</v>
       </c>
       <c r="D11" t="n">
-        <v>1589.996253358682</v>
+        <v>1539.19673200788</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.208000760437</v>
+        <v>1153.408479409636</v>
       </c>
       <c r="F11" t="n">
-        <v>793.22209597083</v>
+        <v>742.4225746200284</v>
       </c>
       <c r="G11" t="n">
         <v>379.2389888872364</v>
@@ -5048,16 +5048,16 @@
         <v>1461.457663018649</v>
       </c>
       <c r="M11" t="n">
-        <v>2182.462224957687</v>
+        <v>2182.462224957688</v>
       </c>
       <c r="N11" t="n">
-        <v>2919.747202874792</v>
+        <v>2919.747202874793</v>
       </c>
       <c r="O11" t="n">
         <v>3602.609239333931</v>
       </c>
       <c r="P11" t="n">
-        <v>4150.915188021278</v>
+        <v>4150.915188021279</v>
       </c>
       <c r="Q11" t="n">
         <v>4514.497374127286</v>
@@ -5118,25 +5118,25 @@
         <v>92.81162322608048</v>
       </c>
       <c r="J12" t="n">
-        <v>92.81162322608048</v>
+        <v>240.4596049779263</v>
       </c>
       <c r="K12" t="n">
-        <v>197.7841868637024</v>
+        <v>570.9683475412851</v>
       </c>
       <c r="L12" t="n">
-        <v>688.5165197074535</v>
+        <v>1061.700680385036</v>
       </c>
       <c r="M12" t="n">
-        <v>1280.534873959581</v>
+        <v>1653.719034637164</v>
       </c>
       <c r="N12" t="n">
-        <v>1902.630837358917</v>
+        <v>2275.8149980365</v>
       </c>
       <c r="O12" t="n">
-        <v>1902.630837358917</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="P12" t="n">
-        <v>2322.214355784993</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="Q12" t="n">
         <v>2552.77562977024</v>
@@ -5176,22 +5176,22 @@
         <v>743.5667998938108</v>
       </c>
       <c r="C13" t="n">
-        <v>574.6306169659039</v>
+        <v>679.6040206802893</v>
       </c>
       <c r="D13" t="n">
-        <v>424.5139775535681</v>
+        <v>529.4873812679535</v>
       </c>
       <c r="E13" t="n">
-        <v>424.5139775535681</v>
+        <v>381.5742876855604</v>
       </c>
       <c r="F13" t="n">
-        <v>277.6240300556577</v>
+        <v>234.6843401876501</v>
       </c>
       <c r="G13" t="n">
-        <v>110.4098352302366</v>
+        <v>234.6843401876501</v>
       </c>
       <c r="H13" t="n">
-        <v>110.4098352302366</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="I13" t="n">
         <v>92.81162322608048</v>
@@ -5270,25 +5270,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5297,31 +5297,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>985.7836617409695</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356194</v>
+        <v>533.5582272005026</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232836</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>2160.315914855604</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>2160.315914855604</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1905.631426649717</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1616.214256612757</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>1388.224705714739</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y16" t="n">
-        <v>1167.432126571209</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="17">
@@ -5489,37 +5489,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
         <v>2206.558663014778</v>
@@ -5534,31 +5534,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>653.7474797708871</v>
+        <v>763.7541388327634</v>
       </c>
       <c r="C19" t="n">
-        <v>484.8112968429802</v>
+        <v>594.8179559048565</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429802</v>
+        <v>594.8179559048565</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429802</v>
+        <v>446.9048623224634</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>300.014914824553</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>132.8188155394329</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5689,34 +5689,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.3616186032</v>
       </c>
       <c r="U19" t="n">
-        <v>1828.279732885522</v>
+        <v>1938.286391947398</v>
       </c>
       <c r="V19" t="n">
-        <v>1573.595244679635</v>
+        <v>1683.601903741511</v>
       </c>
       <c r="W19" t="n">
-        <v>1284.178074642674</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X19" t="n">
-        <v>1056.188523744657</v>
+        <v>1166.195182806533</v>
       </c>
       <c r="Y19" t="n">
-        <v>835.3959446011269</v>
+        <v>945.4026036630031</v>
       </c>
     </row>
     <row r="20">
@@ -5738,7 +5738,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5747,28 +5747,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852255</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>636.6680198981028</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C22" t="n">
-        <v>467.7318369701959</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D22" t="n">
-        <v>317.6151975578602</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E22" t="n">
-        <v>317.6151975578602</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F22" t="n">
-        <v>317.6151975578602</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5935,25 +5935,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W22" t="n">
-        <v>1267.09861476989</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X22" t="n">
-        <v>1039.109063871873</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y22" t="n">
-        <v>818.3164847283425</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="23">
@@ -5984,13 +5984,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6063,19 +6063,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
         <v>2001.151557821488</v>
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
         <v>402.7245934908939</v>
@@ -6221,13 +6221,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6245,7 +6245,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T28" t="n">
-        <v>2035.268256189238</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="29">
@@ -6458,25 +6458,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6540,19 +6540,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>2148.04349261611</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>564.5188827892232</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6649,22 +6649,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004711</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168603</v>
+        <v>793.7736536168594</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362668</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075789</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V32" t="n">
         <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="33">
@@ -6765,34 +6765,34 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G33" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1814.118720444889</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D34" t="n">
-        <v>194.8007783998286</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E34" t="n">
-        <v>194.8007783998286</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F34" t="n">
-        <v>194.8007783998286</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797186</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
@@ -6889,19 +6889,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1901.695539989114</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="35">
@@ -6929,13 +6929,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
@@ -6944,10 +6944,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6956,7 +6956,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7008,28 +7008,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1814.118720444889</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7075,31 +7075,31 @@
         <v>782.5512955656822</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150027</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942658</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580117</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345476</v>
+        <v>268.555303634548</v>
       </c>
       <c r="H37" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384023</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7160,7 +7160,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,16 +7169,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
         <v>2206.558663014779</v>
@@ -7315,16 +7315,16 @@
         <v>656.9646031150027</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942658</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580117</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G40" t="n">
-        <v>268.555303634548</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H40" t="n">
-        <v>151.3734194384023</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7333,10 +7333,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7391,13 +7391,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7488,19 +7488,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>280.8495004245706</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7543,31 +7543,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150027</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942658</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580117</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345476</v>
+        <v>268.555303634548</v>
       </c>
       <c r="H43" t="n">
-        <v>151.3734194384019</v>
+        <v>151.3734194384023</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
         <v>483.825546038073</v>
@@ -7591,10 +7591,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
@@ -7603,7 +7603,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W43" t="n">
         <v>1483.798285518751</v>
@@ -7628,16 +7628,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
@@ -7649,16 +7649,16 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.957531531932</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656814</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150019</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E46" t="n">
-        <v>533.581456494265</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580109</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G46" t="n">
         <v>268.5553036345477</v>
@@ -7804,7 +7804,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K46" t="n">
         <v>483.8255460380728</v>
@@ -7816,7 +7816,7 @@
         <v>1344.317444979286</v>
       </c>
       <c r="N46" t="n">
-        <v>1785.769117656414</v>
+        <v>1785.769117656413</v>
       </c>
       <c r="O46" t="n">
         <v>2179.340199382518</v>
@@ -7846,10 +7846,10 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y46" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>7.932322837845788</v>
+        <v>28.20078661756313</v>
       </c>
       <c r="K3" t="n">
-        <v>54.37759108367317</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8067,7 +8067,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>34.10912730395745</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -8140,7 +8140,7 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
-        <v>162.4747015415544</v>
+        <v>79.59482039970979</v>
       </c>
       <c r="M4" t="n">
         <v>178.5096609094456</v>
@@ -8152,10 +8152,10 @@
         <v>163.0416663658825</v>
       </c>
       <c r="P4" t="n">
-        <v>49.93636048799118</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q4" t="n">
-        <v>65.34295837775146</v>
+        <v>63.15263669355087</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>60.51967546761153</v>
+        <v>60.51967546761151</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>2.051220519418266</v>
+        <v>2.051220519418237</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>97.32166909127241</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8310,7 +8310,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>97.32166909127238</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -8532,7 +8532,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>211.0329012241554</v>
+        <v>211.0329012241559</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8553,7 +8553,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154988</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -22547,25 +22547,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>26.55309724687515</v>
       </c>
       <c r="F2" t="n">
-        <v>176.780947881227</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>182.8554185508297</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>112.7173555407463</v>
+        <v>315.3851177362608</v>
       </c>
       <c r="I2" t="n">
-        <v>119.7918854653487</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22592,28 +22592,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>2.111409028256901</v>
+        <v>2.111409028256389</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>155.4188311829253</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.7990016821551</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>21.0623773590444</v>
       </c>
       <c r="V2" t="n">
-        <v>113.8703031132126</v>
+        <v>97.65716060964849</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>156.1428407955692</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>50.29152613729343</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23270,7 +23270,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>50.29152613729354</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>103.9236696772416</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H13" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>64.38234686029452</v>
+        <v>81.80457674440905</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>111.7546635373313</v>
+        <v>120.3791545843333</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23662,16 +23662,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,16 +23698,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23741,7 +23741,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23896,19 +23896,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>101.6825818796774</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,16 +23935,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>110.003342051665</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24133,19 +24133,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,7 +24175,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24187,7 +24187,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>55.21102825632957</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24361,10 +24361,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="C25" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24604,19 +24604,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>125.5054897610404</v>
       </c>
       <c r="T28" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>133.8601746357976</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24889,7 +24889,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25081,16 +25081,16 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>65.54986409393068</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25129,13 +25129,13 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>211.1765892730638</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25330,7 +25330,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>-3.339550858072471e-13</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25555,7 +25555,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>-3.552713678800501e-13</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25804,7 +25804,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>-3.197442310920451e-13</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1182561.448850755</v>
+        <v>1182561.448850756</v>
       </c>
     </row>
     <row r="13">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>208611.1685410621</v>
+        <v>208611.168541062</v>
       </c>
       <c r="C2" t="n">
         <v>246312.5309592851</v>
@@ -26320,7 +26320,7 @@
         <v>246312.530959285</v>
       </c>
       <c r="E2" t="n">
-        <v>240803.9314914092</v>
+        <v>240803.9314914091</v>
       </c>
       <c r="F2" t="n">
         <v>242143.9799070018</v>
@@ -26329,28 +26329,28 @@
         <v>242143.9799070018</v>
       </c>
       <c r="H2" t="n">
-        <v>242143.9799070019</v>
+        <v>242143.9799070018</v>
       </c>
       <c r="I2" t="n">
         <v>242143.9799070018</v>
       </c>
       <c r="J2" t="n">
+        <v>242143.9799070019</v>
+      </c>
+      <c r="K2" t="n">
         <v>242143.9799070018</v>
-      </c>
-      <c r="K2" t="n">
-        <v>242143.9799070019</v>
       </c>
       <c r="L2" t="n">
         <v>242143.9799070018</v>
       </c>
       <c r="M2" t="n">
-        <v>246312.5309592849</v>
+        <v>246312.5309592848</v>
       </c>
       <c r="N2" t="n">
         <v>246312.5309592848</v>
       </c>
       <c r="O2" t="n">
-        <v>246312.530959285</v>
+        <v>246312.5309592848</v>
       </c>
       <c r="P2" t="n">
         <v>246312.530959285</v>
@@ -26363,19 +26363,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>640934.5795662082</v>
+        <v>640934.5795662107</v>
       </c>
       <c r="C3" t="n">
-        <v>37214.07781388456</v>
+        <v>37214.07781388227</v>
       </c>
       <c r="D3" t="n">
-        <v>391128.3638059436</v>
+        <v>391128.3638059433</v>
       </c>
       <c r="E3" t="n">
-        <v>495753.0386361756</v>
+        <v>495753.0386361758</v>
       </c>
       <c r="F3" t="n">
-        <v>11452.26311504165</v>
+        <v>11452.26311504171</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,19 +26387,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>60203.00178460858</v>
+        <v>60203.00178460909</v>
       </c>
       <c r="K3" t="n">
-        <v>8652.398722070482</v>
+        <v>8652.398722069978</v>
       </c>
       <c r="L3" t="n">
-        <v>95382.64613756968</v>
+        <v>95382.64613756967</v>
       </c>
       <c r="M3" t="n">
-        <v>148904.2624253758</v>
+        <v>148904.2624253757</v>
       </c>
       <c r="N3" t="n">
-        <v>3077.017355704841</v>
+        <v>3077.017355704952</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>192251.2650934683</v>
+        <v>192251.2650934675</v>
       </c>
       <c r="C4" t="n">
         <v>253911.4645514929</v>
@@ -26436,7 +26436,7 @@
         <v>12996.86414683044</v>
       </c>
       <c r="I4" t="n">
-        <v>12996.86414683045</v>
+        <v>12996.86414683042</v>
       </c>
       <c r="J4" t="n">
         <v>12996.86414683044</v>
@@ -26445,19 +26445,19 @@
         <v>12996.86414683044</v>
       </c>
       <c r="L4" t="n">
-        <v>12996.86414683048</v>
+        <v>12996.86414683052</v>
       </c>
       <c r="M4" t="n">
-        <v>20987.7234099239</v>
+        <v>20987.72340992394</v>
       </c>
       <c r="N4" t="n">
-        <v>20987.7234099239</v>
+        <v>20987.72340992391</v>
       </c>
       <c r="O4" t="n">
+        <v>20987.72340992392</v>
+      </c>
+      <c r="P4" t="n">
         <v>20987.72340992391</v>
-      </c>
-      <c r="P4" t="n">
-        <v>20987.72340992392</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>60372.88894066251</v>
+        <v>60372.88894066268</v>
       </c>
       <c r="C5" t="n">
-        <v>63047.80320426619</v>
+        <v>63047.8032042662</v>
       </c>
       <c r="D5" t="n">
         <v>92937.7724398447</v>
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-684947.5650592769</v>
+        <v>-685261.7430794309</v>
       </c>
       <c r="C6" t="n">
-        <v>-107860.8146103585</v>
+        <v>-107860.8146103562</v>
       </c>
       <c r="D6" t="n">
-        <v>-381704.6992693221</v>
+        <v>-381704.6992693219</v>
       </c>
       <c r="E6" t="n">
-        <v>-368081.5671842099</v>
+        <v>-368127.4721797758</v>
       </c>
       <c r="F6" t="n">
-        <v>116572.3228212226</v>
+        <v>116537.5848957868</v>
       </c>
       <c r="G6" t="n">
-        <v>128024.5859362643</v>
+        <v>127989.8480108286</v>
       </c>
       <c r="H6" t="n">
-        <v>128024.5859362643</v>
+        <v>127989.8480108286</v>
       </c>
       <c r="I6" t="n">
-        <v>128024.5859362643</v>
+        <v>127989.8480108286</v>
       </c>
       <c r="J6" t="n">
-        <v>67821.58415165568</v>
+        <v>67786.84622621955</v>
       </c>
       <c r="K6" t="n">
-        <v>119372.1872141939</v>
+        <v>119337.4492887586</v>
       </c>
       <c r="L6" t="n">
-        <v>32641.93979869454</v>
+        <v>32607.20187325885</v>
       </c>
       <c r="M6" t="n">
-        <v>-26743.57072993016</v>
+        <v>-26743.57072993024</v>
       </c>
       <c r="N6" t="n">
-        <v>119083.6743397407</v>
+        <v>119083.6743397405</v>
       </c>
       <c r="O6" t="n">
-        <v>122160.6916954457</v>
+        <v>122160.6916954455</v>
       </c>
       <c r="P6" t="n">
         <v>122160.6916954457</v>
@@ -26713,7 +26713,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>6.53661033346719e-14</v>
       </c>
       <c r="M2" t="n">
         <v>24.28464749203971</v>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>585.1149995754614</v>
+        <v>585.1149995754633</v>
       </c>
       <c r="C3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
         <v>1358.041048716385</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>230.0950978604844</v>
+        <v>230.0950978604864</v>
       </c>
       <c r="C4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="D4" t="n">
         <v>640.5848321000387</v>
@@ -26935,10 +26935,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>6.53661033346719e-14</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>585.1149995754614</v>
+        <v>585.1149995754633</v>
       </c>
       <c r="C3" t="n">
-        <v>28.94001419401684</v>
+        <v>28.94001419401502</v>
       </c>
       <c r="D3" t="n">
-        <v>320.0098783480611</v>
+        <v>320.0098783480607</v>
       </c>
       <c r="E3" t="n">
-        <v>423.976156598846</v>
+        <v>423.9761565988463</v>
       </c>
       <c r="F3" t="n">
         <v>9.934451625288375</v>
@@ -27009,19 +27009,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>230.0950978604844</v>
+        <v>230.0950978604864</v>
       </c>
       <c r="C4" t="n">
-        <v>33.61878214102174</v>
+        <v>33.61878214101978</v>
       </c>
       <c r="D4" t="n">
-        <v>376.8709520985326</v>
+        <v>376.8709520985325</v>
       </c>
       <c r="E4" t="n">
         <v>519.5604582259673</v>
       </c>
       <c r="F4" t="n">
-        <v>12.56299777364211</v>
+        <v>12.56299777364234</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,19 +27033,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>230.0950978604844</v>
+        <v>230.0950978604864</v>
       </c>
       <c r="K4" t="n">
-        <v>33.61878214102174</v>
+        <v>33.61878214101978</v>
       </c>
       <c r="L4" t="n">
-        <v>376.8709520985324</v>
+        <v>376.8709520985321</v>
       </c>
       <c r="M4" t="n">
         <v>519.5604582259675</v>
       </c>
       <c r="N4" t="n">
-        <v>12.56299777364211</v>
+        <v>12.56299777364256</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27255,19 +27255,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>230.0950978604844</v>
+        <v>230.0950978604864</v>
       </c>
       <c r="K4" t="n">
-        <v>33.61878214102174</v>
+        <v>33.61878214101978</v>
       </c>
       <c r="L4" t="n">
-        <v>376.8709520985326</v>
+        <v>376.8709520985325</v>
       </c>
       <c r="M4" t="n">
         <v>519.5604582259673</v>
       </c>
       <c r="N4" t="n">
-        <v>12.56299777364211</v>
+        <v>12.56299777364234</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27379,19 +27379,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>125.2821749649002</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>330.0746396811462</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27427,19 +27427,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>155.4188311829254</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.7990016821551</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1574752195308</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>213.8819553569223</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27455,28 +27455,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>83.00696968593712</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.0849679188408</v>
       </c>
       <c r="H3" t="n">
-        <v>100.0805081132402</v>
+        <v>100.0805081132401</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>46.06500316587368</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,25 +27503,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>22.01738194518782</v>
       </c>
       <c r="S3" t="n">
-        <v>148.3061708849503</v>
+        <v>148.3061708849502</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>195.0918920475589</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>52.39286236385357</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27546,19 +27546,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.9358539493882</v>
       </c>
       <c r="H4" t="n">
-        <v>152.8461484158855</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>123.7199762617561</v>
       </c>
       <c r="J4" t="n">
-        <v>18.76181369538814</v>
+        <v>18.7618136953879</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>129.8511161656903</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>205.6286397716254</v>
+        <v>205.6286397716253</v>
       </c>
       <c r="T4" t="n">
-        <v>223.4373263167984</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>191.4178041478554</v>
+        <v>286.2614770614507</v>
       </c>
       <c r="V4" t="n">
-        <v>22.0425454633436</v>
+        <v>22.04254546334158</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>275.220679341407</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27616,7 +27616,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>101.5590117695014</v>
+        <v>127.3040398841688</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27628,7 +27628,7 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>187.4310348820949</v>
+        <v>149.1202946442038</v>
       </c>
       <c r="H5" t="n">
         <v>314.193632629268</v>
@@ -27670,19 +27670,19 @@
         <v>212.2897156032232</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1481678782825</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>85.52708871590687</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>106.0172206769629</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>122.5240586545474</v>
       </c>
     </row>
     <row r="6">
@@ -27698,10 +27698,10 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -27710,10 +27710,10 @@
         <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
-        <v>99.47932027120976</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I6" t="n">
-        <v>43.9218040015056</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,28 +27740,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S6" t="n">
         <v>147.1499354121988</v>
       </c>
       <c r="T6" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>153.6259333131886</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>56.08283977390164</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27780,7 +27780,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27789,13 +27789,13 @@
         <v>166.8836670385466</v>
       </c>
       <c r="H7" t="n">
-        <v>152.3821593358568</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>122.1505735248085</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27822,19 +27822,19 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>83.93150106663816</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U7" t="n">
         <v>286.2586305026775</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>22.80911833508486</v>
+        <v>119.8517173254666</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>105.5499398817133</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27865,13 +27865,13 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>201.5341068112902</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27913,13 +27913,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28017,16 +28017,16 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>122.4029047491014</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28065,16 +28065,16 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>115.3258519193757</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28579,7 +28579,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -29035,7 +29035,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -29089,7 +29089,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>-3.410605131648481e-13</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -29746,7 +29746,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>6.53661033346719e-14</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -29761,10 +29761,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>8.360392837795219e-13</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1.698204795177154e-12</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29797,7 +29797,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>6.53661033346719e-14</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -30034,7 +30034,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30472,7 +30472,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -30514,7 +30514,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -30694,7 +30694,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -30712,7 +30712,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.352221103820948</v>
+        <v>2.352221103820956</v>
       </c>
       <c r="H2" t="n">
-        <v>24.08968437950629</v>
+        <v>24.08968437950638</v>
       </c>
       <c r="I2" t="n">
-        <v>90.68400410505721</v>
+        <v>90.68400410505751</v>
       </c>
       <c r="J2" t="n">
-        <v>199.6418259104234</v>
+        <v>199.6418259104241</v>
       </c>
       <c r="K2" t="n">
-        <v>299.2113452351642</v>
+        <v>299.2113452351652</v>
       </c>
       <c r="L2" t="n">
-        <v>371.1981318412247</v>
+        <v>371.1981318412259</v>
       </c>
       <c r="M2" t="n">
-        <v>413.0294438963004</v>
+        <v>413.0294438963018</v>
       </c>
       <c r="N2" t="n">
-        <v>419.7126921075317</v>
+        <v>419.7126921075331</v>
       </c>
       <c r="O2" t="n">
-        <v>396.3227935064122</v>
+        <v>396.3227935064135</v>
       </c>
       <c r="P2" t="n">
-        <v>338.2523350058324</v>
+        <v>338.2523350058336</v>
       </c>
       <c r="Q2" t="n">
-        <v>254.0134167252446</v>
+        <v>254.0134167252455</v>
       </c>
       <c r="R2" t="n">
-        <v>147.7577089128928</v>
+        <v>147.7577089128933</v>
       </c>
       <c r="S2" t="n">
-        <v>53.60123840331992</v>
+        <v>53.6012384033201</v>
       </c>
       <c r="T2" t="n">
-        <v>10.29684788197621</v>
+        <v>10.29684788197624</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1881776883056759</v>
+        <v>0.1881776883056765</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.25854924436986</v>
+        <v>1.258549244369865</v>
       </c>
       <c r="H3" t="n">
-        <v>12.15493612325629</v>
+        <v>12.15493612325633</v>
       </c>
       <c r="I3" t="n">
-        <v>43.33162968554125</v>
+        <v>43.33162968554139</v>
       </c>
       <c r="J3" t="n">
-        <v>118.9053038288209</v>
+        <v>118.9053038288213</v>
       </c>
       <c r="K3" t="n">
-        <v>203.2281032016016</v>
+        <v>203.2281032016022</v>
       </c>
       <c r="L3" t="n">
-        <v>273.2652646602191</v>
+        <v>273.2652646602199</v>
       </c>
       <c r="M3" t="n">
-        <v>318.8876747686264</v>
+        <v>318.8876747686275</v>
       </c>
       <c r="N3" t="n">
-        <v>327.3276826398612</v>
+        <v>327.3276826398623</v>
       </c>
       <c r="O3" t="n">
-        <v>299.4408809619816</v>
+        <v>299.4408809619827</v>
       </c>
       <c r="P3" t="n">
-        <v>240.3277061463815</v>
+        <v>240.3277061463823</v>
       </c>
       <c r="Q3" t="n">
-        <v>160.6527070532475</v>
+        <v>160.652707053248</v>
       </c>
       <c r="R3" t="n">
-        <v>78.14045220745504</v>
+        <v>78.14045220745531</v>
       </c>
       <c r="S3" t="n">
-        <v>23.37700021888752</v>
+        <v>23.3770002188876</v>
       </c>
       <c r="T3" t="n">
-        <v>5.072836647262725</v>
+        <v>5.072836647262742</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08279929239275401</v>
+        <v>0.08279929239275428</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.055125409070504</v>
+        <v>1.055125409070508</v>
       </c>
       <c r="H4" t="n">
-        <v>9.381024091554124</v>
+        <v>9.381024091554156</v>
       </c>
       <c r="I4" t="n">
-        <v>31.73049866550208</v>
+        <v>31.73049866550218</v>
       </c>
       <c r="J4" t="n">
-        <v>74.59736642128463</v>
+        <v>74.59736642128487</v>
       </c>
       <c r="K4" t="n">
-        <v>122.5863884356458</v>
+        <v>122.5863884356462</v>
       </c>
       <c r="L4" t="n">
-        <v>156.8683721812639</v>
+        <v>156.8683721812644</v>
       </c>
       <c r="M4" t="n">
-        <v>165.3957038963882</v>
+        <v>165.3957038963887</v>
       </c>
       <c r="N4" t="n">
-        <v>161.4629637353073</v>
+        <v>161.4629637353079</v>
       </c>
       <c r="O4" t="n">
-        <v>149.1371805475291</v>
+        <v>149.1371805475296</v>
       </c>
       <c r="P4" t="n">
-        <v>127.6126222024907</v>
+        <v>127.6126222024912</v>
       </c>
       <c r="Q4" t="n">
-        <v>88.35236493589467</v>
+        <v>88.35236493589497</v>
       </c>
       <c r="R4" t="n">
-        <v>47.4422752114792</v>
+        <v>47.44227521147936</v>
       </c>
       <c r="S4" t="n">
-        <v>18.38795826534687</v>
+        <v>18.38795826534693</v>
       </c>
       <c r="T4" t="n">
-        <v>4.508263111483061</v>
+        <v>4.508263111483076</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05755229504020938</v>
+        <v>0.05755229504020957</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,31 +31276,31 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.468562869425036</v>
+        <v>2.468562869425037</v>
       </c>
       <c r="H5" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I5" t="n">
-        <v>95.1692700235088</v>
+        <v>95.16927002350883</v>
       </c>
       <c r="J5" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K5" t="n">
-        <v>314.0104541016252</v>
+        <v>314.0104541016253</v>
       </c>
       <c r="L5" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M5" t="n">
-        <v>433.4580399459292</v>
+        <v>433.4580399459293</v>
       </c>
       <c r="N5" t="n">
-        <v>440.4718441986831</v>
+        <v>440.4718441986832</v>
       </c>
       <c r="O5" t="n">
-        <v>415.9250721658379</v>
+        <v>415.925072165838</v>
       </c>
       <c r="P5" t="n">
         <v>354.9824263269073</v>
@@ -31312,7 +31312,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S5" t="n">
-        <v>56.25237638702307</v>
+        <v>56.25237638702308</v>
       </c>
       <c r="T5" t="n">
         <v>10.8061339609081</v>
@@ -31361,16 +31361,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I6" t="n">
-        <v>45.47482884990948</v>
+        <v>45.47482884990949</v>
       </c>
       <c r="J6" t="n">
-        <v>124.7864061472484</v>
+        <v>124.7864061472485</v>
       </c>
       <c r="K6" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L6" t="n">
-        <v>286.7810703458304</v>
+        <v>286.7810703458305</v>
       </c>
       <c r="M6" t="n">
         <v>334.6599825043656</v>
@@ -31379,25 +31379,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O6" t="n">
-        <v>314.2513427542725</v>
+        <v>314.2513427542726</v>
       </c>
       <c r="P6" t="n">
-        <v>252.2144074480712</v>
+        <v>252.2144074480713</v>
       </c>
       <c r="Q6" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R6" t="n">
-        <v>82.00530919736545</v>
+        <v>82.00530919736546</v>
       </c>
       <c r="S6" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T6" t="n">
-        <v>5.323741109944814</v>
+        <v>5.323741109944815</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08689457742020923</v>
+        <v>0.08689457742020924</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31437,16 +31437,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H7" t="n">
-        <v>9.845013171582789</v>
+        <v>9.84501317158279</v>
       </c>
       <c r="I7" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J7" t="n">
-        <v>78.28698101779068</v>
+        <v>78.28698101779069</v>
       </c>
       <c r="K7" t="n">
-        <v>128.6495586225234</v>
+        <v>128.6495586225235</v>
       </c>
       <c r="L7" t="n">
         <v>164.6271425440336</v>
@@ -31458,25 +31458,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O7" t="n">
-        <v>156.513563181768</v>
+        <v>156.5135631817681</v>
       </c>
       <c r="P7" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q7" t="n">
-        <v>92.72230707919121</v>
+        <v>92.72230707919122</v>
       </c>
       <c r="R7" t="n">
-        <v>49.78878849350555</v>
+        <v>49.78878849350556</v>
       </c>
       <c r="S7" t="n">
-        <v>19.29743379337851</v>
+        <v>19.29743379337852</v>
       </c>
       <c r="T7" t="n">
-        <v>4.731243548715651</v>
+        <v>4.731243548715652</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06039885381339136</v>
+        <v>0.06039885381339138</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31595,10 +31595,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31607,34 +31607,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31677,7 +31677,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31692,10 +31692,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31704,16 +31704,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31838,10 +31838,10 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735817</v>
       </c>
       <c r="K12" t="n">
-        <v>243.8743315376135</v>
+        <v>471.6886536848223</v>
       </c>
       <c r="L12" t="n">
         <v>634.2436048745723</v>
@@ -31853,13 +31853,13 @@
         <v>759.7214730927636</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>422.3544583169088</v>
       </c>
       <c r="P12" t="n">
-        <v>557.7961431982452</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>372.8719498286952</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32075,10 +32075,10 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
@@ -32087,19 +32087,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>253.6713445157999</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32309,13 +32309,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32327,16 +32327,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>291.8940795642898</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32546,34 +32546,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32783,10 +32783,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
@@ -32798,7 +32798,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>616.9033572954396</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
@@ -33020,34 +33020,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>754.0002396832328</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33260,7 +33260,7 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
@@ -33275,7 +33275,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>551.7051287319853</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33497,10 +33497,10 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33512,10 +33512,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33734,10 +33734,10 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33749,10 +33749,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -34208,10 +34208,10 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34223,7 +34223,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>18.59592138373714</v>
+        <v>18.59592138373779</v>
       </c>
       <c r="K2" t="n">
-        <v>79.12149419018368</v>
+        <v>79.12149419018465</v>
       </c>
       <c r="L2" t="n">
-        <v>135.4317168712374</v>
+        <v>135.4317168712387</v>
       </c>
       <c r="M2" t="n">
-        <v>182.6832106690277</v>
+        <v>182.6832106690291</v>
       </c>
       <c r="N2" t="n">
-        <v>190.2996285109408</v>
+        <v>190.2996285109422</v>
       </c>
       <c r="O2" t="n">
-        <v>166.2245820847254</v>
+        <v>166.2245820847267</v>
       </c>
       <c r="P2" t="n">
-        <v>107.0193392505629</v>
+        <v>107.019339250564</v>
       </c>
       <c r="Q2" t="n">
-        <v>31.70772685079515</v>
+        <v>31.70772685079601</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>20.26846377971774</v>
       </c>
       <c r="K3" t="n">
-        <v>119.7642553109157</v>
+        <v>65.38666422724322</v>
       </c>
       <c r="L3" t="n">
-        <v>134.7108848803449</v>
+        <v>134.7108848803458</v>
       </c>
       <c r="M3" t="n">
-        <v>176.7536408466081</v>
+        <v>176.7536408466092</v>
       </c>
       <c r="N3" t="n">
-        <v>195.9859705565279</v>
+        <v>230.0950978604864</v>
       </c>
       <c r="O3" t="n">
-        <v>156.8446365175372</v>
+        <v>156.8446365175382</v>
       </c>
       <c r="P3" t="n">
-        <v>106.3532987320513</v>
+        <v>106.3532987320521</v>
       </c>
       <c r="Q3" t="n">
-        <v>20.67093296722595</v>
+        <v>20.67093296722646</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,25 +34857,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>100.316896609763</v>
+        <v>100.3168966097634</v>
       </c>
       <c r="L4" t="n">
-        <v>184.45839744158</v>
+        <v>101.5785162997359</v>
       </c>
       <c r="M4" t="n">
-        <v>204.9795808582288</v>
+        <v>204.9795808582293</v>
       </c>
       <c r="N4" t="n">
-        <v>205.5951361145359</v>
+        <v>205.5951361145365</v>
       </c>
       <c r="O4" t="n">
-        <v>173.7223084615688</v>
+        <v>173.7223084615693</v>
       </c>
       <c r="P4" t="n">
-        <v>39.82097864133429</v>
+        <v>124.8911814673846</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.190321684200285</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.47028331217709</v>
+        <v>28.47028331217712</v>
       </c>
       <c r="K5" t="n">
-        <v>93.92060305664467</v>
+        <v>93.92060305664472</v>
       </c>
       <c r="L5" t="n">
-        <v>153.7913200468045</v>
+        <v>153.7913200468046</v>
       </c>
       <c r="M5" t="n">
-        <v>203.1118067186565</v>
+        <v>203.1118067186566</v>
       </c>
       <c r="N5" t="n">
-        <v>211.0587806020922</v>
+        <v>211.0587806020923</v>
       </c>
       <c r="O5" t="n">
-        <v>185.8268607441512</v>
+        <v>185.8268607441513</v>
       </c>
       <c r="P5" t="n">
-        <v>123.7494305716377</v>
+        <v>123.7494305716378</v>
       </c>
       <c r="Q5" t="n">
-        <v>44.27132869117358</v>
+        <v>44.27132869117364</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35015,10 +35015,10 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>75.43840481763047</v>
+        <v>172.7600739089029</v>
       </c>
       <c r="L6" t="n">
-        <v>148.2266905659562</v>
+        <v>148.2266905659563</v>
       </c>
       <c r="M6" t="n">
         <v>192.5259485823473</v>
@@ -35030,10 +35030,10 @@
         <v>171.6550983098281</v>
       </c>
       <c r="P6" t="n">
-        <v>215.5616691250133</v>
+        <v>118.240000033741</v>
       </c>
       <c r="Q6" t="n">
-        <v>28.61687799649638</v>
+        <v>28.61687799649641</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35112,7 +35112,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.560263827496826</v>
+        <v>6.56026382749684</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091745</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K9" t="n">
-        <v>397.6203974676403</v>
+        <v>397.6203974676407</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>568.1422977634695</v>
+        <v>568.1422977634694</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308546</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35486,10 +35486,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>149.139375506915</v>
       </c>
       <c r="K12" t="n">
-        <v>106.0328925632545</v>
+        <v>333.8472147104633</v>
       </c>
       <c r="L12" t="n">
         <v>495.6892250946981</v>
@@ -35501,13 +35501,13 @@
         <v>628.3797610094304</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>279.7582138724644</v>
       </c>
       <c r="P12" t="n">
-        <v>423.821735783915</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>232.8901757426736</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35723,10 +35723,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
@@ -35735,19 +35735,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>122.3296324324666</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35957,13 +35957,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35975,16 +35975,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>151.9123054782682</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36057,7 +36057,7 @@
         <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066232</v>
       </c>
       <c r="Q19" t="n">
         <v>120.4022572998984</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36431,10 +36431,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
@@ -36446,7 +36446,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>485.5616452121063</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>622.6585275998996</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
@@ -36923,7 +36923,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>409.1088842875408</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37145,10 +37145,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37160,10 +37160,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37382,10 +37382,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37397,10 +37397,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37464,7 +37464,7 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L37" t="n">
         <v>418.6266618111712</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37701,7 +37701,7 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L40" t="n">
         <v>418.6266618111712</v>
@@ -37856,10 +37856,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37871,7 +37871,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37938,10 +37938,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M43" t="n">
         <v>450.5570744930848</v>
